--- a/Probennahmeprotokolle.xlsx
+++ b/Probennahmeprotokolle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noemi\OneDrive\Documents\uni\Masterarbeit\Anhang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B1D622-C2AB-4849-9980-6CEDF2CE4B71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA2F595-6A4C-4899-A3C1-6AA8F2FA2C64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10140" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Beschriftungssystem" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="232">
   <si>
     <t>Schmelzwasserentnahme etwa 300 Meter unterhalb Steimiligletscher, es liegt auch noch Schnee oberhalb, daher nicht reines Gletscherschmelzwasser (war mit G anstelle S gekennzeichnet</t>
   </si>
@@ -726,55 +726,6 @@
   </si>
   <si>
     <t>Das Beschriftungssystem der entnommenen Wasserproben ist folgendermassen aufgebaut:</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Probenart: R für Regenprobe, S für Schneeprobe, E für Eisprobe, SCH für Schmelzprobe, M für Mischprobe, weiter Kürzel sind bei den Methodenproben vorhanden siehe Bemerkungsfeld der entsprechenden Proben</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Einzugsgebiet: S für Steinwasser, G für Giglibach, W für Wenden</t>
-    </r>
-  </si>
-  <si>
-    <t>Bei den Regenproben ist anstelle des Einzugsgebietes der Regensammler vermerkt</t>
   </si>
   <si>
     <r>
@@ -801,6 +752,29 @@
   </si>
   <si>
     <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Einzugsgebiet: S für Steinwasser, G für Giglibach, W für Wenden Bei den Regenproben ist anstelle des Einzugsgebietes der Regensammler vermerkt</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>4.</t>
     </r>
     <r>
@@ -819,11 +793,31 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Bei Mischproben: vorgehen der Probennahme: m für manuelle Probennahme, a für Probennahme durch Autosampler</t>
+      <t>Bei Mischproben: vorgehen der Probennahme: m für manuelle Probennahme, a für Probennahme durch Autosampler                                                                            Alle anderen: falls mehrere Proben an einem Tag entnommen wurden sind diese anhand alphabetischer Nummerierung zu unterscheiden</t>
     </r>
   </si>
   <si>
-    <t>Alle anderen: falls mehrere Proben an einem Tag entnommen wurden sind diese anhand alphabetischer Nummerierung zu unterscheiden</t>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Probenart: R für Regenprobe, S für Schneeprobe, E für Eisprobe, SCH für Schmelzprobe, M für Mischprobe, weitere Kürzel sind bei den Methodenproben vorhanden siehe Bemerkungsfeld der entsprechenden Proben</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -944,7 +938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1039,6 +1033,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
   </cellXfs>
@@ -1917,10 +1917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1935,35 +1935,31 @@
     </row>
     <row r="2" spans="1:1" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
-        <v>230</v>
-      </c>
+      <c r="A4" s="37"/>
     </row>
     <row r="5" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -6341,7 +6337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DF5CA9-4BCA-45B2-9225-FAC793AFAE41}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
